--- a/Permission.xlsx
+++ b/Permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geoaiti\package\sanari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F38BD3-3DE9-4163-AE52-43C0D46A019C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903DD4AE-DFF8-42D5-BDC7-3FA28395E196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DCBB8D3A-5E72-4F12-96BB-EE1B8EC0E3F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Application</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>is_auth</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>sorter</t>
   </si>
 </sst>
 </file>
@@ -201,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -215,11 +233,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="53">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -231,13 +276,70 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -284,76 +386,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -372,59 +417,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5FA34C33-8C71-4EBD-AFAA-F4E70B8010B0}" name="Table1" displayName="Table1" ref="A2:B6" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5FA34C33-8C71-4EBD-AFAA-F4E70B8010B0}" name="Table1" displayName="Table1" ref="A2:B6" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="A2:B6" xr:uid="{C541E36E-468E-4591-B837-B30E2EA21F25}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E0296A32-BF39-4271-9B8C-EEB95D89214E}" name="id" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{CCFD9CCE-2B11-4975-AE36-3BEE4D4C909A}" name="name" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{E0296A32-BF39-4271-9B8C-EEB95D89214E}" name="id" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{CCFD9CCE-2B11-4975-AE36-3BEE4D4C909A}" name="name" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E303594B-EF57-4619-9444-EA513880603C}" name="Table4" displayName="Table4" ref="D2:E6" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E303594B-EF57-4619-9444-EA513880603C}" name="Table4" displayName="Table4" ref="D2:E6" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="D2:E6" xr:uid="{9A49CAAC-3B34-4351-AFA6-7395F9F7EC77}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1AD80C31-9880-40E1-A826-32529091B5FB}" name="id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{4E8B8328-3E53-412D-BDEB-3A12F9D9FF6F}" name="account" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{1AD80C31-9880-40E1-A826-32529091B5FB}" name="id" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{4E8B8328-3E53-412D-BDEB-3A12F9D9FF6F}" name="account" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{61999D9E-AA27-42B5-B747-9BB36501B364}" name="Table7" displayName="Table7" ref="G2:H6" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{61999D9E-AA27-42B5-B747-9BB36501B364}" name="Table7" displayName="Table7" ref="G2:H6" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="G2:H6" xr:uid="{96FE3236-EE01-4AEC-9A01-9567B7C3D590}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{231D3FCD-C4F2-4F40-B297-7D669B8CDED9}" name="id" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{C32E32E8-0136-4241-B4FB-588566883E2F}" name="group" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{231D3FCD-C4F2-4F40-B297-7D669B8CDED9}" name="id" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{C32E32E8-0136-4241-B4FB-588566883E2F}" name="group" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B469CA01-8AF0-4192-B0F0-CCFA297E6D3E}" name="Table8" displayName="Table8" ref="J2:O10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B469CA01-8AF0-4192-B0F0-CCFA297E6D3E}" name="Table8" displayName="Table8" ref="J2:O10" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="J2:O10" xr:uid="{B857374C-2BC4-4344-B8C4-F94CCB7A282C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7F38BCA8-D3C2-4BC9-AB7E-3E60D88EDA31}" name="id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{41AB9A20-5568-4D08-A081-2A7592386D1C}" name="account_id" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{E565EFC4-A73A-4E33-970B-4F708050BD1F}" name="account" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{7F38BCA8-D3C2-4BC9-AB7E-3E60D88EDA31}" name="id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{41AB9A20-5568-4D08-A081-2A7592386D1C}" name="account_id" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{E565EFC4-A73A-4E33-970B-4F708050BD1F}" name="account" dataDxfId="39">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table8[[#This Row],[account_id]],Table4[#All],2,TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A65441E1-C66B-4A1B-ADFD-B8A2ED9AA01A}" name="group_id" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{FF92414D-C688-448A-8DD0-B3806683DAA5}" name="group" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{A65441E1-C66B-4A1B-ADFD-B8A2ED9AA01A}" name="group_id" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{FF92414D-C688-448A-8DD0-B3806683DAA5}" name="group" dataDxfId="37">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table8[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A807C4A5-8AE7-40E8-A1B5-9EEAAD7B5CA2}" name="default" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{A807C4A5-8AE7-40E8-A1B5-9EEAAD7B5CA2}" name="default" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B79ACC5D-9FA3-457C-B294-D2A9EBF0D82A}" name="Table9" displayName="Table9" ref="Q2:S7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B79ACC5D-9FA3-457C-B294-D2A9EBF0D82A}" name="Table9" displayName="Table9" ref="Q2:S7" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="Q2:S7" xr:uid="{97B88B4C-9D9F-4CB8-B914-F1317EC8BF2D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6B367AA9-6136-4101-A30B-9BBF7D4533E4}" name="id" dataDxfId="33"/>
@@ -436,52 +481,69 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CE297044-3E1A-4EA5-A949-F35A8CC59790}" name="Table10" displayName="Table10" ref="U2:X7" totalsRowShown="0" headerRowDxfId="29" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CE297044-3E1A-4EA5-A949-F35A8CC59790}" name="Table10" displayName="Table10" ref="U2:X7" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="U2:X7" xr:uid="{9460E0A1-B78C-4985-A63B-456789AE7C67}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{363670DA-CBE9-4693-9DF9-B4048110D9BE}" name="id" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{F03B079F-0FE0-4767-AB3C-CAC99488A14D}" name="name" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{1082A4AD-A8CC-45CE-99F0-288402472F3F}" name="prefix" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{35358DC7-51D3-438A-90E7-CB8F274BFFC0}" name="parent_id" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{1082A4AD-A8CC-45CE-99F0-288402472F3F}" name="prefix" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{35358DC7-51D3-438A-90E7-CB8F274BFFC0}" name="parent_id" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E5626043-5B31-433E-BEA3-E33B4B89749C}" name="Table11" displayName="Table11" ref="Z2:AF16" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E5626043-5B31-433E-BEA3-E33B4B89749C}" name="Table11" displayName="Table11" ref="Z2:AF16" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="Z2:AF16" xr:uid="{CE408C0E-A029-4BDB-99B3-BB0552AB69D5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9A26C96E-0498-46B8-854B-1FFEF84DAE24}" name="id" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{1998A63D-703D-4ADE-8D42-356208440870}" name="app_id" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{744C52A5-06D7-45EA-A751-1A85007718F1}" name="app" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{9A26C96E-0498-46B8-854B-1FFEF84DAE24}" name="id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{1998A63D-703D-4ADE-8D42-356208440870}" name="app_id" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{744C52A5-06D7-45EA-A751-1A85007718F1}" name="app" dataDxfId="20">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{54C636EA-4277-4042-B3AE-E437B3822A87}" name="modul_id" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{D6D7F8BB-AA85-404F-839E-D25544456CC2}" name="modul" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{54C636EA-4277-4042-B3AE-E437B3822A87}" name="modul_id" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{D6D7F8BB-AA85-404F-839E-D25544456CC2}" name="modul" dataDxfId="18">
       <calculatedColumnFormula>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B759D3B0-1A11-4C95-A141-48389BB5E269}" name="metode" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{F2F44C89-095B-4C01-A008-AD43A250BD67}" name="is_auth" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{B759D3B0-1A11-4C95-A141-48389BB5E269}" name="metode" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{F2F44C89-095B-4C01-A008-AD43A250BD67}" name="is_auth" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E2F47D35-1048-4787-9251-9EBA0C4305F7}" name="Table12" displayName="Table12" ref="AH2:AM10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E2F47D35-1048-4787-9251-9EBA0C4305F7}" name="Table12" displayName="Table12" ref="AH2:AM10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="AH2:AM10" xr:uid="{41C8D021-0DE6-4F03-8291-80CFC43CF021}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{226D3F84-7675-4C96-BE5F-ECFA1F4C9779}" name="id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{5BE8E6FF-1B0C-4CB7-B994-4C249B3D05A3}" name="group_id" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{D2ADF9B2-D112-480F-962C-F4B3FE467CD7}" name="group" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{226D3F84-7675-4C96-BE5F-ECFA1F4C9779}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5BE8E6FF-1B0C-4CB7-B994-4C249B3D05A3}" name="group_id" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D2ADF9B2-D112-480F-962C-F4B3FE467CD7}" name="group" dataDxfId="11">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E6A46CC3-341F-42CB-8747-E2CCE9598999}" name="permission_id" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6DA9683A-1C79-4B3C-9861-989CD0B54311}" name="permission" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{E6A46CC3-341F-42CB-8747-E2CCE9598999}" name="permission_id" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{6DA9683A-1C79-4B3C-9861-989CD0B54311}" name="permission" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E997C490-D1E2-44DA-A0BB-E1E5AA5FEDC8}" name="default" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E997C490-D1E2-44DA-A0BB-E1E5AA5FEDC8}" name="default" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D5E6EE9-9001-4B2B-ABF3-CE42EBA8D72F}" name="Table2" displayName="Table2" ref="AO2:AT14" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="AO2:AT14" xr:uid="{225B2977-51A2-444B-A487-8E79455FD7DF}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7080D142-CDDA-4F2D-8E19-437B2092ACA8}" name="id" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3B876700-6642-4BD8-BFCC-7FADEFE1D4E9}" name="menu" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{01DFE634-438A-4F66-B0EE-215E6AC2E564}" name="permission_id" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FC914841-2E16-4BCE-93E8-9ED1F290DC0E}" name="permission" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4DD08C3D-BE86-4CCB-8B87-51D6F9C796C8}" name="parent_id" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{23015F6F-96C4-41F6-936D-87F181A3B0FD}" name="sorter" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -784,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1EE0E4-DF8A-4A3B-ABE6-26711520F073}">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AT15" sqref="AT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,58 +893,73 @@
     <col min="37" max="37" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="42.5703125" style="2" customWidth="1"/>
     <col min="39" max="39" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="2"/>
+    <col min="40" max="40" width="2.85546875" style="2" customWidth="1"/>
+    <col min="41" max="41" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27" style="2" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="28.5703125" style="2" customWidth="1"/>
+    <col min="45" max="45" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="Q1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="U1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Z1" s="3" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Z1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AH1" s="3" t="s">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AH1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AO1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -979,8 +1056,26 @@
       <c r="AM2" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="AO2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1081,8 +1176,24 @@
       <c r="AM3" s="2">
         <v>1</v>
       </c>
+      <c r="AO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR3" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v/>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1185,8 +1296,25 @@
       <c r="AM4" s="2">
         <v>1</v>
       </c>
+      <c r="AO4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v/>
+      </c>
+      <c r="AS4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1289,8 +1417,27 @@
       <c r="AM5" s="2">
         <v>1</v>
       </c>
+      <c r="AO5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>7</v>
+      </c>
+      <c r="AR5" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v>GET : administrator</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1393,8 +1540,27 @@
       <c r="AM6" s="2">
         <v>1</v>
       </c>
+      <c r="AO6" s="3">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>8</v>
+      </c>
+      <c r="AR6" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v>GET : admin</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="J7" s="2">
         <v>5</v>
       </c>
@@ -1479,8 +1645,27 @@
       <c r="AM7" s="2">
         <v>0</v>
       </c>
+      <c r="AO7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v>GET : dashboard</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="J8" s="2">
         <v>6</v>
       </c>
@@ -1544,8 +1729,27 @@
       <c r="AM8" s="2">
         <v>0</v>
       </c>
+      <c r="AO8" s="3">
+        <v>6</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>10</v>
+      </c>
+      <c r="AR8" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v>GET : user</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="J9" s="2">
         <v>7</v>
       </c>
@@ -1609,8 +1813,25 @@
       <c r="AM9" s="2">
         <v>0</v>
       </c>
+      <c r="AO9" s="3">
+        <v>7</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v/>
+      </c>
+      <c r="AS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="J10" s="2">
         <v>8</v>
       </c>
@@ -1674,8 +1895,25 @@
       <c r="AM10" s="2">
         <v>0</v>
       </c>
+      <c r="AO10" s="3">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v/>
+      </c>
+      <c r="AS10" s="3">
+        <v>7</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="Z11" s="2">
         <v>9</v>
       </c>
@@ -1699,8 +1937,27 @@
       <c r="AF11" s="2">
         <v>1</v>
       </c>
+      <c r="AO11" s="3">
+        <v>9</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>11</v>
+      </c>
+      <c r="AR11" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v>GET : administrator/profile</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="Z12" s="2">
         <v>10</v>
       </c>
@@ -1724,8 +1981,27 @@
       <c r="AF12" s="2">
         <v>1</v>
       </c>
+      <c r="AO12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>12</v>
+      </c>
+      <c r="AR12" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v>GET : admin/profile</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="Z13" s="2">
         <v>11</v>
       </c>
@@ -1749,8 +2025,27 @@
       <c r="AF13" s="2">
         <v>1</v>
       </c>
+      <c r="AO13" s="3">
+        <v>11</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>13</v>
+      </c>
+      <c r="AR13" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v>GET : dashboard/profile</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="Z14" s="2">
         <v>12</v>
       </c>
@@ -1774,8 +2069,27 @@
       <c r="AF14" s="2">
         <v>1</v>
       </c>
+      <c r="AO14" s="3">
+        <v>12</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>14</v>
+      </c>
+      <c r="AR14" s="1" t="str">
+        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+        <v>GET : user/profile</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="Z15" s="2">
         <v>13</v>
       </c>
@@ -1800,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="Z16" s="2">
         <v>14</v>
       </c>
@@ -1826,7 +2140,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="AO1:AT1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="U1:X1"/>
     <mergeCell ref="Z1:AE1"/>
@@ -1838,7 +2153,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1847,6 +2162,7 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Permission.xlsx
+++ b/Permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geoaiti\package\sanari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903DD4AE-DFF8-42D5-BDC7-3FA28395E196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2DE37-28D8-493E-9514-29C29AE5A892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DCBB8D3A-5E72-4F12-96BB-EE1B8EC0E3F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="61">
   <si>
     <t>Application</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>is_auth</t>
-  </si>
-  <si>
     <t>menu</t>
   </si>
   <si>
@@ -184,6 +181,33 @@
   </si>
   <si>
     <t>sorter</t>
+  </si>
+  <si>
+    <t>action_id</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>data_argument</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Permission Action</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>generation</t>
   </si>
 </sst>
 </file>
@@ -219,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -236,41 +260,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -417,133 +491,166 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5FA34C33-8C71-4EBD-AFAA-F4E70B8010B0}" name="Table1" displayName="Table1" ref="A2:B6" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5FA34C33-8C71-4EBD-AFAA-F4E70B8010B0}" name="Table1" displayName="Table1" ref="A2:B6" totalsRowShown="0" headerRowDxfId="67">
   <autoFilter ref="A2:B6" xr:uid="{C541E36E-468E-4591-B837-B30E2EA21F25}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E0296A32-BF39-4271-9B8C-EEB95D89214E}" name="id" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{CCFD9CCE-2B11-4975-AE36-3BEE4D4C909A}" name="name" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{E0296A32-BF39-4271-9B8C-EEB95D89214E}" name="id" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{CCFD9CCE-2B11-4975-AE36-3BEE4D4C909A}" name="name" dataDxfId="65"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E6FAA43-3AA7-487F-881C-83F762EAA86A}" name="Table3" displayName="Table3" ref="AJ2:AO16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15">
+  <autoFilter ref="AJ2:AO16" xr:uid="{FA858892-EA51-48D3-ADDB-9A63AB9FCF1A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EF124120-2A4C-4282-AC5B-7386CB97EE2B}" name="id" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{71ADD098-9CC5-46B7-A30E-27FAFEF31497}" name="permission_id" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{F8DAEF3C-E5A4-4D23-8DF7-FC0EBC49F697}" name="permission" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{1CC8B0F8-8EB5-4599-A3DA-DED9016342E3}" name="action_id" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{52F71CFA-F340-4DF9-85FF-D27C88F6209F}" name="action" dataDxfId="10">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{2DE79C71-9008-4ADB-886C-825E994B9BF5}" name="data" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{34896FE8-5FB0-4458-8BF2-3B6BC2458DE2}" name="Table5" displayName="Table5" ref="AQ2:AT3" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="AQ2:AT3" xr:uid="{2B60FF95-6FEF-4653-A8A7-1C7689803D0F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{80E88A88-C067-499D-880F-547A9218F6D7}" name="id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FF9DEE83-9735-410F-B5B2-642AD84E8CF0}" name="name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{902E81BE-BE09-4CD7-840D-285C9CDAD211}" name="prefix" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{1CEFD257-F065-45FC-A795-3D15603E2E81}" name="data_argument" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E303594B-EF57-4619-9444-EA513880603C}" name="Table4" displayName="Table4" ref="D2:E6" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E303594B-EF57-4619-9444-EA513880603C}" name="Table4" displayName="Table4" ref="D2:E6" totalsRowShown="0" headerRowDxfId="64">
   <autoFilter ref="D2:E6" xr:uid="{9A49CAAC-3B34-4351-AFA6-7395F9F7EC77}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1AD80C31-9880-40E1-A826-32529091B5FB}" name="id" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{4E8B8328-3E53-412D-BDEB-3A12F9D9FF6F}" name="account" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{1AD80C31-9880-40E1-A826-32529091B5FB}" name="id" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{4E8B8328-3E53-412D-BDEB-3A12F9D9FF6F}" name="account" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{61999D9E-AA27-42B5-B747-9BB36501B364}" name="Table7" displayName="Table7" ref="G2:H6" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{61999D9E-AA27-42B5-B747-9BB36501B364}" name="Table7" displayName="Table7" ref="G2:H6" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="G2:H6" xr:uid="{96FE3236-EE01-4AEC-9A01-9567B7C3D590}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{231D3FCD-C4F2-4F40-B297-7D669B8CDED9}" name="id" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{C32E32E8-0136-4241-B4FB-588566883E2F}" name="group" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{231D3FCD-C4F2-4F40-B297-7D669B8CDED9}" name="id" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{C32E32E8-0136-4241-B4FB-588566883E2F}" name="group" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B469CA01-8AF0-4192-B0F0-CCFA297E6D3E}" name="Table8" displayName="Table8" ref="J2:O10" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="J2:O10" xr:uid="{B857374C-2BC4-4344-B8C4-F94CCB7A282C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B469CA01-8AF0-4192-B0F0-CCFA297E6D3E}" name="Table8" displayName="Table8" ref="J2:O12" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="J2:O12" xr:uid="{B857374C-2BC4-4344-B8C4-F94CCB7A282C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7F38BCA8-D3C2-4BC9-AB7E-3E60D88EDA31}" name="id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{41AB9A20-5568-4D08-A081-2A7592386D1C}" name="account_id" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{E565EFC4-A73A-4E33-970B-4F708050BD1F}" name="account" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{7F38BCA8-D3C2-4BC9-AB7E-3E60D88EDA31}" name="id" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{41AB9A20-5568-4D08-A081-2A7592386D1C}" name="account_id" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{E565EFC4-A73A-4E33-970B-4F708050BD1F}" name="account" dataDxfId="54">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table8[[#This Row],[account_id]],Table4[#All],2,TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A65441E1-C66B-4A1B-ADFD-B8A2ED9AA01A}" name="group_id" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{FF92414D-C688-448A-8DD0-B3806683DAA5}" name="group" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{A65441E1-C66B-4A1B-ADFD-B8A2ED9AA01A}" name="group_id" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{FF92414D-C688-448A-8DD0-B3806683DAA5}" name="group" dataDxfId="52">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table8[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A807C4A5-8AE7-40E8-A1B5-9EEAAD7B5CA2}" name="default" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{A807C4A5-8AE7-40E8-A1B5-9EEAAD7B5CA2}" name="default" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B79ACC5D-9FA3-457C-B294-D2A9EBF0D82A}" name="Table9" displayName="Table9" ref="Q2:S7" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="Q2:S7" xr:uid="{97B88B4C-9D9F-4CB8-B914-F1317EC8BF2D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B79ACC5D-9FA3-457C-B294-D2A9EBF0D82A}" name="Table9" displayName="Table9" ref="R2:T7" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="R2:T7" xr:uid="{97B88B4C-9D9F-4CB8-B914-F1317EC8BF2D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6B367AA9-6136-4101-A30B-9BBF7D4533E4}" name="id" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{3476A1EE-B9BC-4C24-B1C2-719EA32939C8}" name="app" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{C598BF80-574C-4222-A3C7-572EB9A53893}" name="prefix" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{6B367AA9-6136-4101-A30B-9BBF7D4533E4}" name="id" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{3476A1EE-B9BC-4C24-B1C2-719EA32939C8}" name="app" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{C598BF80-574C-4222-A3C7-572EB9A53893}" name="prefix" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CE297044-3E1A-4EA5-A949-F35A8CC59790}" name="Table10" displayName="Table10" ref="U2:X7" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="U2:X7" xr:uid="{9460E0A1-B78C-4985-A63B-456789AE7C67}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{363670DA-CBE9-4693-9DF9-B4048110D9BE}" name="id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{F03B079F-0FE0-4767-AB3C-CAC99488A14D}" name="name" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{1082A4AD-A8CC-45CE-99F0-288402472F3F}" name="prefix" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{35358DC7-51D3-438A-90E7-CB8F274BFFC0}" name="parent_id" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CE297044-3E1A-4EA5-A949-F35A8CC59790}" name="Table10" displayName="Table10" ref="V2:Z7" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="V2:Z7" xr:uid="{9460E0A1-B78C-4985-A63B-456789AE7C67}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{363670DA-CBE9-4693-9DF9-B4048110D9BE}" name="id" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{F03B079F-0FE0-4767-AB3C-CAC99488A14D}" name="name" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{1082A4AD-A8CC-45CE-99F0-288402472F3F}" name="prefix" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{35358DC7-51D3-438A-90E7-CB8F274BFFC0}" name="parent_id" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{3E02BB52-067E-4826-A472-EAF3A5A8F201}" name="generation" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E5626043-5B31-433E-BEA3-E33B4B89749C}" name="Table11" displayName="Table11" ref="Z2:AF16" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="Z2:AF16" xr:uid="{CE408C0E-A029-4BDB-99B3-BB0552AB69D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E5626043-5B31-433E-BEA3-E33B4B89749C}" name="Table11" displayName="Table11" ref="AB2:AH16" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="AB2:AH16" xr:uid="{CE408C0E-A029-4BDB-99B3-BB0552AB69D5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9A26C96E-0498-46B8-854B-1FFEF84DAE24}" name="id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{1998A63D-703D-4ADE-8D42-356208440870}" name="app_id" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{744C52A5-06D7-45EA-A751-1A85007718F1}" name="app" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{9A26C96E-0498-46B8-854B-1FFEF84DAE24}" name="id" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1998A63D-703D-4ADE-8D42-356208440870}" name="app_id" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{744C52A5-06D7-45EA-A751-1A85007718F1}" name="app" dataDxfId="35">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{54C636EA-4277-4042-B3AE-E437B3822A87}" name="modul_id" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{D6D7F8BB-AA85-404F-839E-D25544456CC2}" name="modul" dataDxfId="18">
+    <tableColumn id="4" xr3:uid="{54C636EA-4277-4042-B3AE-E437B3822A87}" name="modul_id" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{D6D7F8BB-AA85-404F-839E-D25544456CC2}" name="modul" dataDxfId="33">
       <calculatedColumnFormula>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B759D3B0-1A11-4C95-A141-48389BB5E269}" name="metode" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{F2F44C89-095B-4C01-A008-AD43A250BD67}" name="is_auth" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{B759D3B0-1A11-4C95-A141-48389BB5E269}" name="metode" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{F2F44C89-095B-4C01-A008-AD43A250BD67}" name="title" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E2F47D35-1048-4787-9251-9EBA0C4305F7}" name="Table12" displayName="Table12" ref="AH2:AM10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="AH2:AM10" xr:uid="{41C8D021-0DE6-4F03-8291-80CFC43CF021}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E2F47D35-1048-4787-9251-9EBA0C4305F7}" name="Table12" displayName="Table12" ref="AV2:BA14" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="AV2:BA14" xr:uid="{41C8D021-0DE6-4F03-8291-80CFC43CF021}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{226D3F84-7675-4C96-BE5F-ECFA1F4C9779}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5BE8E6FF-1B0C-4CB7-B994-4C249B3D05A3}" name="group_id" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D2ADF9B2-D112-480F-962C-F4B3FE467CD7}" name="group" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{226D3F84-7675-4C96-BE5F-ECFA1F4C9779}" name="id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{5BE8E6FF-1B0C-4CB7-B994-4C249B3D05A3}" name="group_id" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{D2ADF9B2-D112-480F-962C-F4B3FE467CD7}" name="group" dataDxfId="26">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E6A46CC3-341F-42CB-8747-E2CCE9598999}" name="permission_id" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E6A46CC3-341F-42CB-8747-E2CCE9598999}" name="permission_id" dataDxfId="25"/>
     <tableColumn id="5" xr3:uid="{6DA9683A-1C79-4B3C-9861-989CD0B54311}" name="permission" dataDxfId="9">
-      <calculatedColumnFormula>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E997C490-D1E2-44DA-A0BB-E1E5AA5FEDC8}" name="default" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{E997C490-D1E2-44DA-A0BB-E1E5AA5FEDC8}" name="default" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D5E6EE9-9001-4B2B-ABF3-CE42EBA8D72F}" name="Table2" displayName="Table2" ref="AO2:AT14" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
-  <autoFilter ref="AO2:AT14" xr:uid="{225B2977-51A2-444B-A487-8E79455FD7DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D5E6EE9-9001-4B2B-ABF3-CE42EBA8D72F}" name="Table2" displayName="Table2" ref="BC2:BH15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="BC2:BH15" xr:uid="{225B2977-51A2-444B-A487-8E79455FD7DF}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7080D142-CDDA-4F2D-8E19-437B2092ACA8}" name="id" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3B876700-6642-4BD8-BFCC-7FADEFE1D4E9}" name="menu" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{01DFE634-438A-4F66-B0EE-215E6AC2E564}" name="permission_id" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FC914841-2E16-4BCE-93E8-9ED1F290DC0E}" name="permission" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{7080D142-CDDA-4F2D-8E19-437B2092ACA8}" name="id" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{3B876700-6642-4BD8-BFCC-7FADEFE1D4E9}" name="menu" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{01DFE634-438A-4F66-B0EE-215E6AC2E564}" name="permission_id" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{FC914841-2E16-4BCE-93E8-9ED1F290DC0E}" name="permission" dataDxfId="8">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4DD08C3D-BE86-4CCB-8B87-51D6F9C796C8}" name="parent_id" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{23015F6F-96C4-41F6-936D-87F181A3B0FD}" name="sorter" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{4DD08C3D-BE86-4CCB-8B87-51D6F9C796C8}" name="parent_id" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{23015F6F-96C4-41F6-936D-87F181A3B0FD}" name="sorter" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -846,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1EE0E4-DF8A-4A3B-ABE6-26711520F073}">
-  <dimension ref="A1:AT16"/>
+  <dimension ref="A1:BH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AT15" sqref="AT15"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BF24" sqref="BF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,96 +977,125 @@
     <col min="14" max="14" width="15.85546875" style="2" customWidth="1"/>
     <col min="15" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="2.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5703125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.28515625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.28515625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19" style="2" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19" style="2" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="42.5703125" style="2" customWidth="1"/>
-    <col min="39" max="39" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.85546875" style="2" customWidth="1"/>
-    <col min="41" max="41" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27" style="2" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.5703125" style="2" customWidth="1"/>
-    <col min="45" max="45" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="2"/>
+    <col min="38" max="38" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.140625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="2.42578125" style="5" customWidth="1"/>
+    <col min="48" max="48" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.5703125" style="2" customWidth="1"/>
+    <col min="51" max="51" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="42.5703125" style="2" customWidth="1"/>
+    <col min="53" max="53" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.85546875" style="2" customWidth="1"/>
+    <col min="55" max="55" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="27" style="2" customWidth="1"/>
+    <col min="57" max="57" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.28515625" style="2" customWidth="1"/>
+    <col min="62" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="U1" s="5" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="V1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Z1" s="5" t="s">
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="AB1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AH1" s="5" t="s">
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AJ1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AQ1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AV1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AO1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BC1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -996,56 +1132,53 @@
       <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="AH2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>44</v>
@@ -1054,28 +1187,64 @@
         <v>20</v>
       </c>
       <c r="AM2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AT2" s="3" t="s">
-        <v>52</v>
+      <c r="BH2" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1114,86 +1283,118 @@
       <c r="O3" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="1"/>
-      <c r="X3" s="2">
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2">
         <v>0</v>
       </c>
-      <c r="Z3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1" t="str">
+      <c r="Z3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>auth</v>
       </c>
-      <c r="AC3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="2" t="str">
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v/>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="1" t="str">
+      <c r="AH3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /auth</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
         <v>Administrator</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AY3" s="2">
         <v>7</v>
       </c>
-      <c r="AL3" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : administrator</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR3" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+      <c r="AZ3" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /administrator</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF3" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
         <v/>
       </c>
-      <c r="AS3" s="2">
+      <c r="BG3" s="2">
         <v>0</v>
       </c>
-      <c r="AT3" s="3">
+      <c r="BH3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1232,89 +1433,116 @@
       <c r="O4" s="2">
         <v>1</v>
       </c>
-      <c r="Q4" s="2">
-        <v>2</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="2">
-        <v>2</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="2">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <v>0</v>
       </c>
-      <c r="Z4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1" t="str">
+      <c r="Z4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>auth</v>
       </c>
-      <c r="AC4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="2" t="str">
+      <c r="AE4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v>login</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="1" t="str">
+      <c r="AH4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /auth/login</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AV4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
         <v>Admin</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AY4" s="2">
         <v>8</v>
       </c>
-      <c r="AL4" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : admin</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AZ4" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /admin</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
         <v/>
       </c>
-      <c r="AS4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="3">
+      <c r="BG4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1353,91 +1581,114 @@
       <c r="O5" s="2">
         <v>1</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>3</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="S5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>3</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <v>0</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
         <v>3</v>
       </c>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1" t="str">
+      <c r="AC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>auth</v>
       </c>
-      <c r="AC5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="2" t="str">
+      <c r="AE5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v>login</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2">
+      <c r="AH5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="5">
         <v>3</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AK5" s="5">
         <v>3</v>
       </c>
-      <c r="AJ5" s="1" t="str">
+      <c r="AL5" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>POST : /auth/login</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
         <v>Dashboard</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AY5" s="2">
         <v>9</v>
       </c>
-      <c r="AL5" s="4" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : dashboard</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="3">
+      <c r="AZ5" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /dashboard</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="3">
         <v>3</v>
       </c>
-      <c r="AP5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ5" s="3">
+      <c r="BD5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE5" s="3">
         <v>7</v>
       </c>
-      <c r="AR5" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : administrator</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="3">
+      <c r="BF5" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /administrator</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>2</v>
+      </c>
+      <c r="BH5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1476,91 +1727,114 @@
       <c r="O6" s="2">
         <v>1</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>4</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>4</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <v>0</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
         <v>4</v>
       </c>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1" t="str">
+      <c r="AC6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>auth</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AE6" s="2">
         <v>3</v>
       </c>
-      <c r="AD6" s="2" t="str">
+      <c r="AF6" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v>register</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="2">
+      <c r="AH6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="5">
         <v>4</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AK6" s="5">
         <v>4</v>
       </c>
-      <c r="AJ6" s="1" t="str">
+      <c r="AL6" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /auth/register</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
         <v>User</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AY6" s="2">
         <v>10</v>
       </c>
-      <c r="AL6" s="4" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : user</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="3">
+      <c r="AZ6" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /user</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="3">
         <v>4</v>
       </c>
-      <c r="AP6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ6" s="3">
+      <c r="BD6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE6" s="3">
         <v>8</v>
       </c>
-      <c r="AR6" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : admin</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="3">
+      <c r="BF6" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /admin</v>
+      </c>
+      <c r="BG6" s="3">
+        <v>2</v>
+      </c>
+      <c r="BH6" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="J7" s="2">
         <v>5</v>
       </c>
@@ -1581,91 +1855,114 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>5</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>0</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
         <v>5</v>
       </c>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1" t="str">
+      <c r="AC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>auth</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>3</v>
       </c>
-      <c r="AD7" s="2" t="str">
+      <c r="AF7" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v>register</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2">
+      <c r="AH7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ7" s="5">
         <v>5</v>
       </c>
-      <c r="AI7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="1" t="str">
+      <c r="AK7" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>POST : /auth/register</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
         <v>Administrator</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AY7" s="2">
         <v>11</v>
       </c>
-      <c r="AL7" s="4" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : administrator/profile</v>
-      </c>
-      <c r="AM7" s="2">
+      <c r="AZ7" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /administrator/profile</v>
+      </c>
+      <c r="BA7" s="2">
         <v>0</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="BC7" s="3">
         <v>5</v>
       </c>
-      <c r="AP7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ7" s="3">
+      <c r="BD7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE7" s="3">
         <v>9</v>
       </c>
-      <c r="AR7" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : dashboard</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="3">
+      <c r="BF7" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /dashboard</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>2</v>
+      </c>
+      <c r="BH7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="J8" s="2">
         <v>6</v>
       </c>
@@ -1686,79 +1983,106 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="R8" s="5"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="5"/>
+      <c r="AB8" s="2">
         <v>6</v>
       </c>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="1" t="str">
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>auth</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AE8" s="2">
         <v>4</v>
       </c>
-      <c r="AD8" s="2" t="str">
+      <c r="AF8" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v>logout</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="2">
+      <c r="AH8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ8" s="5">
         <v>6</v>
       </c>
-      <c r="AI8" s="2">
-        <v>2</v>
-      </c>
-      <c r="AJ8" s="1" t="str">
+      <c r="AK8" s="5">
+        <v>6</v>
+      </c>
+      <c r="AL8" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /auth/logout</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>6</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX8" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
         <v>Admin</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AY8" s="2">
         <v>12</v>
       </c>
-      <c r="AL8" s="4" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : admin/profile</v>
-      </c>
-      <c r="AM8" s="2">
+      <c r="AZ8" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /admin/profile</v>
+      </c>
+      <c r="BA8" s="2">
         <v>0</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="BC8" s="3">
         <v>6</v>
       </c>
-      <c r="AP8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ8" s="3">
+      <c r="BD8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE8" s="3">
         <v>10</v>
       </c>
-      <c r="AR8" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : user</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>2</v>
-      </c>
-      <c r="AT8" s="3">
+      <c r="BF8" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /user</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>2</v>
+      </c>
+      <c r="BH8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="J9" s="2">
         <v>7</v>
       </c>
       <c r="K9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4" t="str">
         <f>IFERROR(VLOOKUP(Table8[[#This Row],[account_id]],Table4[#All],2,TRUE),"")</f>
-        <v>admin</v>
+        <v>dev</v>
       </c>
       <c r="M9" s="2">
         <v>3</v>
@@ -1770,68 +2094,88 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AB9" s="2">
         <v>7</v>
       </c>
-      <c r="AA9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="1" t="str">
+      <c r="AC9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>administrator</v>
       </c>
-      <c r="AC9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="2" t="str">
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v/>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="2">
+      <c r="AH9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="5">
         <v>7</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AK9" s="5">
+        <v>7</v>
+      </c>
+      <c r="AL9" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /administrator</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW9" s="2">
         <v>3</v>
       </c>
-      <c r="AJ9" s="1" t="str">
+      <c r="AX9" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
         <v>Dashboard</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AY9" s="2">
         <v>13</v>
       </c>
-      <c r="AL9" s="4" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : dashboard/profile</v>
-      </c>
-      <c r="AM9" s="2">
+      <c r="AZ9" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /dashboard/profile</v>
+      </c>
+      <c r="BA9" s="2">
         <v>0</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="BC9" s="3">
         <v>7</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="BD9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
         <v/>
       </c>
-      <c r="AS9" s="3">
+      <c r="BG9" s="3">
         <v>0</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="BH9" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="J10" s="2">
         <v>8</v>
       </c>
@@ -1843,317 +2187,619 @@
         <v>admin</v>
       </c>
       <c r="M10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="4" t="str">
         <f>IFERROR(VLOOKUP(Table8[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
-        <v>User</v>
+        <v>Dashboard</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AB10" s="2">
         <v>8</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AC10" s="2">
         <v>3</v>
       </c>
-      <c r="AB10" s="1" t="str">
+      <c r="AD10" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>admin</v>
       </c>
-      <c r="AC10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="2" t="str">
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v/>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="2">
+      <c r="AH10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="5">
         <v>8</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AK10" s="5">
+        <v>8</v>
+      </c>
+      <c r="AL10" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /admin</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>8</v>
+      </c>
+      <c r="AW10" s="2">
         <v>4</v>
       </c>
-      <c r="AJ10" s="1" t="str">
+      <c r="AX10" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
         <v>User</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AY10" s="2">
         <v>14</v>
       </c>
-      <c r="AL10" s="4" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table12[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : user/profile</v>
-      </c>
-      <c r="AM10" s="2">
+      <c r="AZ10" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /user/profile</v>
+      </c>
+      <c r="BA10" s="2">
         <v>0</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="BC10" s="3">
         <v>8</v>
       </c>
-      <c r="AP10" s="1" t="s">
+      <c r="BD10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
         <v/>
       </c>
-      <c r="AS10" s="3">
+      <c r="BG10" s="3">
         <v>7</v>
       </c>
-      <c r="AT10" s="3">
+      <c r="BH10" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="Z11" s="2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="J11" s="5">
         <v>9</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[account_id]],Table4[#All],2,TRUE),"")</f>
+        <v>admin</v>
+      </c>
+      <c r="M11" s="5">
         <v>4</v>
       </c>
-      <c r="AB11" s="1" t="str">
+      <c r="N11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
+        <v>User</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>dashboard</v>
       </c>
-      <c r="AC11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="2" t="str">
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v/>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="3">
+      <c r="AH11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="5">
         <v>9</v>
       </c>
-      <c r="AP11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ11" s="3">
+      <c r="AK11" s="5">
+        <v>9</v>
+      </c>
+      <c r="AL11" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /dashboard</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" s="5">
+        <v>9</v>
+      </c>
+      <c r="AW11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
+        <v>Administrator</v>
+      </c>
+      <c r="AY11" s="5">
+        <v>6</v>
+      </c>
+      <c r="AZ11" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /auth/logout</v>
+      </c>
+      <c r="BA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>9</v>
+      </c>
+      <c r="BD11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE11" s="3">
         <v>11</v>
       </c>
-      <c r="AR11" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : administrator/profile</v>
-      </c>
-      <c r="AS11" s="3">
+      <c r="BF11" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /administrator/profile</v>
+      </c>
+      <c r="BG11" s="3">
         <v>8</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="BH11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="Z12" s="2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="J12" s="5">
         <v>10</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="K12" s="5">
+        <v>4</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[account_id]],Table4[#All],2,TRUE),"")</f>
+        <v>user</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table8[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
+        <v>Dashboard</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="2">
         <v>5</v>
       </c>
-      <c r="AB12" s="1" t="str">
+      <c r="AD12" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>user</v>
       </c>
-      <c r="AC12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="2" t="str">
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v/>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="3">
+      <c r="AH12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="5">
         <v>10</v>
       </c>
-      <c r="AP12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ12" s="3">
+      <c r="AK12" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL12" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /user</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" s="5">
+        <v>10</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>2</v>
+      </c>
+      <c r="AX12" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
+        <v>Admin</v>
+      </c>
+      <c r="AY12" s="5">
+        <v>6</v>
+      </c>
+      <c r="AZ12" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /auth/logout</v>
+      </c>
+      <c r="BA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="3">
+        <v>10</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE12" s="3">
         <v>12</v>
       </c>
-      <c r="AR12" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : admin/profile</v>
-      </c>
-      <c r="AS12" s="3">
+      <c r="BF12" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /admin/profile</v>
+      </c>
+      <c r="BG12" s="3">
         <v>8</v>
       </c>
-      <c r="AT12" s="3">
+      <c r="BH12" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="Z13" s="2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AB13" s="2">
         <v>11</v>
       </c>
-      <c r="AA13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="1" t="str">
+      <c r="AC13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>administrator</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AE13" s="2">
         <v>5</v>
       </c>
-      <c r="AD13" s="2" t="str">
+      <c r="AF13" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v>profile</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="3">
+      <c r="AH13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="5">
         <v>11</v>
       </c>
-      <c r="AP13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ13" s="3">
+      <c r="AK13" s="5">
+        <v>11</v>
+      </c>
+      <c r="AL13" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /administrator/profile</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" s="5">
+        <v>11</v>
+      </c>
+      <c r="AW13" s="5">
+        <v>3</v>
+      </c>
+      <c r="AX13" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
+        <v>Dashboard</v>
+      </c>
+      <c r="AY13" s="5">
+        <v>6</v>
+      </c>
+      <c r="AZ13" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /auth/logout</v>
+      </c>
+      <c r="BA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>11</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE13" s="3">
         <v>13</v>
       </c>
-      <c r="AR13" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : dashboard/profile</v>
-      </c>
-      <c r="AS13" s="3">
+      <c r="BF13" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /dashboard/profile</v>
+      </c>
+      <c r="BG13" s="3">
         <v>8</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="BH13" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="Z14" s="2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AB14" s="2">
         <v>12</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AC14" s="2">
         <v>3</v>
       </c>
-      <c r="AB14" s="1" t="str">
+      <c r="AD14" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>admin</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AE14" s="2">
         <v>5</v>
       </c>
-      <c r="AD14" s="2" t="str">
+      <c r="AF14" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v>profile</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="3">
+      <c r="AH14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="5">
         <v>12</v>
       </c>
-      <c r="AP14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ14" s="3">
+      <c r="AK14" s="5">
+        <v>12</v>
+      </c>
+      <c r="AL14" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /admin/profile</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" s="5">
+        <v>12</v>
+      </c>
+      <c r="AW14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AX14" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[group_id]],Table7[#All],2,TRUE),"")</f>
+        <v>User</v>
+      </c>
+      <c r="AY14" s="5">
+        <v>6</v>
+      </c>
+      <c r="AZ14" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table12[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /auth/logout</v>
+      </c>
+      <c r="BA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>12</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE14" s="3">
         <v>14</v>
       </c>
-      <c r="AR14" s="1" t="str">
-        <f>_xlfn.IFNA(_xlfn.CONCAT(_xlfn.IFNA(VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],6,TRUE),""),_xlfn.IFNA(_xlfn.CONCAT(" : ",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],3,TRUE)),""),IF(_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE))="/","",_xlfn.CONCAT("/",VLOOKUP(Table2[[#This Row],[permission_id]],Table11[#All],5,TRUE)))),"")</f>
-        <v>GET : user/profile</v>
-      </c>
-      <c r="AS14" s="3">
+      <c r="BF14" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /user/profile</v>
+      </c>
+      <c r="BG14" s="3">
         <v>8</v>
       </c>
-      <c r="AT14" s="3">
+      <c r="BH14" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="Z15" s="2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AB15" s="2">
         <v>13</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AC15" s="2">
         <v>4</v>
       </c>
-      <c r="AB15" s="1" t="str">
+      <c r="AD15" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>dashboard</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AE15" s="2">
         <v>5</v>
       </c>
-      <c r="AD15" s="2" t="str">
+      <c r="AF15" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v>profile</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF15" s="2">
-        <v>1</v>
+      <c r="AH15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>13</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>13</v>
+      </c>
+      <c r="AL15" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /dashboard/profile</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC15" s="5">
+        <v>13</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE15" s="5">
+        <v>6</v>
+      </c>
+      <c r="BF15" s="4" t="str">
+        <f>IFERROR(VLOOKUP(Table2[[#This Row],[permission_id]],Table3[#All],3,TRUE),"")</f>
+        <v>GET : /auth/logout</v>
+      </c>
+      <c r="BG15" s="5">
+        <v>8</v>
+      </c>
+      <c r="BH15" s="5">
+        <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="Z16" s="2">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="AB16" s="2">
         <v>14</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AC16" s="2">
         <v>5</v>
       </c>
-      <c r="AB16" s="1" t="str">
+      <c r="AD16" s="1" t="str">
         <f>IFERROR(VLOOKUP(Table11[[#This Row],[app_id]],Table9[#All],3,TRUE),"")</f>
         <v>user</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AE16" s="2">
         <v>5</v>
       </c>
-      <c r="AD16" s="2" t="str">
+      <c r="AF16" s="2" t="str">
         <f>IFERROR(IF(VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)=0,"",VLOOKUP(Table11[[#This Row],[modul_id]],Table10[#All],3,TRUE)),"")</f>
         <v>profile</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AF16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>14</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>14</v>
+      </c>
+      <c r="AL16" s="1" t="str">
+        <f>_xlfn.CONCAT(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],6,TRUE), " : /",IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=1,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)="","",_xlfn.CONCAT("/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)))),IF(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],5,TRUE)=2,_xlfn.CONCAT(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],2,TRUE),Table9[],3,TRUE),"/",VLOOKUP(VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],4,TRUE),Table10[],3,TRUE),"/",VLOOKUP(VLOOKUP(Table3[[#This Row],[permission_id]],Table11[],4,TRUE),Table10[],3,TRUE)),"NEXT GENERATION")))</f>
+        <v>GET : /user/profile</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="1" t="str">
+        <f>IFERROR(VLOOKUP(Table3[[#This Row],[action_id]],Table5[#All],2,TRUE),"")</f>
+        <v>Index</v>
+      </c>
+      <c r="AO16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="5"/>
+    </row>
+    <row r="17" spans="28:41" x14ac:dyDescent="0.25">
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="AO1:AT1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AH1:AL1"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:O1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="AV1:AZ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <tableParts count="9">
+  <tableParts count="11">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2163,6 +2809,8 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Permission.xlsx
+++ b/Permission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Geoaiti\package\sanari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2DE37-28D8-493E-9514-29C29AE5A892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D799F38D-BD9D-4A3E-A7C0-F6892F01FA36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DCBB8D3A-5E72-4F12-96BB-EE1B8EC0E3F0}"/>
   </bookViews>
@@ -955,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1EE0E4-DF8A-4A3B-ABE6-26711520F073}">
   <dimension ref="A1:BH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
       <selection activeCell="BF24" sqref="BF24"/>
     </sheetView>
   </sheetViews>
